--- a/Ecopulpers/Charts/Water Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.88504432741388e-07</v>
+        <v>-1.037572165962786e-07</v>
       </c>
       <c r="C2">
-        <v>1.501273368376133e-05</v>
+        <v>-2.64684405948401e-06</v>
       </c>
       <c r="D2">
-        <v>4.041993864056792e-07</v>
+        <v>-7.126302015159069e-08</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.473364232486347e-10</v>
+        <v>-1.541772519431106e-05</v>
       </c>
       <c r="C3">
-        <v>1.641222979742452e-08</v>
+        <v>-0.0002986286733062116</v>
       </c>
       <c r="D3">
-        <v>1.18627241363356e-09</v>
+        <v>-2.158481656522326e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.133515586422163e-11</v>
+        <v>-7.683133586899871e-06</v>
       </c>
       <c r="C4">
-        <v>7.69241523812525e-08</v>
+        <v>-1.45334359687422</v>
       </c>
       <c r="D4">
-        <v>1.893898371463365e-10</v>
+        <v>-6.820321793910011e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.937974131755894e-07</v>
+        <v>-3.022770589389268e-09</v>
       </c>
       <c r="C5">
-        <v>3.979457245506524e-06</v>
+        <v>-4.094313155178497e-08</v>
       </c>
       <c r="D5">
-        <v>9.745358559021255e-08</v>
+        <v>-1.002663119198388e-09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.896686306958941e-10</v>
+        <v>-1.782022542307082e-07</v>
       </c>
       <c r="C6">
-        <v>9.94043780622178e-09</v>
+        <v>-4.545935145650049e-06</v>
       </c>
       <c r="D6">
-        <v>2.676340815632727e-10</v>
+        <v>-1.22393711554647e-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.905877221654919e-08</v>
+        <v>-1.4180442065026e-07</v>
       </c>
       <c r="C7">
-        <v>9.431025682715699e-05</v>
+        <v>-0.0002858212246792391</v>
       </c>
       <c r="D7">
-        <v>3.467248745891993e-07</v>
+        <v>-1.258798619119261e-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.937615772680147e-05</v>
+        <v>-3.08182416119962e-06</v>
       </c>
       <c r="C8">
-        <v>0.00117383406177396</v>
+        <v>-0.000140651136462111</v>
       </c>
       <c r="D8">
-        <v>1.457364055568178e-05</v>
+        <v>-7.654643354726431e-07</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.261147292794476e-07</v>
+        <v>3.005056870009071e-08</v>
       </c>
       <c r="C9">
-        <v>1.315026649706397e-05</v>
+        <v>9.273863526004789e-07</v>
       </c>
       <c r="D9">
-        <v>2.432980764410786e-05</v>
+        <v>1.715792706136199e-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7.988933111846563e-05</v>
+        <v>-8.798180681424128e-05</v>
       </c>
       <c r="C10">
-        <v>0.0007048683964967495</v>
+        <v>-0.00170345696642471</v>
       </c>
       <c r="D10">
-        <v>1.985814833460608e-06</v>
+        <v>-0.0001230824746016879</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.251646202822144e-08</v>
+        <v>-1.351547540551223e-08</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.939509838346567e-07</v>
+        <v>-2.364685087741236e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Ecopulpers/Charts/Water Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.037572165962786e-07</v>
+        <v>-1.005974372425555e-05</v>
       </c>
       <c r="C2">
-        <v>-2.64684405948401e-06</v>
+        <v>-0.0002566238164192214</v>
       </c>
       <c r="D2">
-        <v>-7.126302015159069e-08</v>
+        <v>-6.909280567235498e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1.541772519431106e-05</v>
+        <v>-0.001494810133060298</v>
       </c>
       <c r="C3">
-        <v>-0.0002986286733062116</v>
+        <v>-0.02895324447661096</v>
       </c>
       <c r="D3">
-        <v>-2.158481656522326e-05</v>
+        <v>-0.002092734311311517</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-7.683133586899871e-06</v>
+        <v>-0.0007449105419587987</v>
       </c>
       <c r="C4">
-        <v>-1.45334359687422</v>
+        <v>-140.8517357889305</v>
       </c>
       <c r="D4">
-        <v>-6.820321793910011e-05</v>
+        <v>-0.006612574864448106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-3.022770589389268e-09</v>
+        <v>-2.930676061829729e-07</v>
       </c>
       <c r="C5">
-        <v>-4.094313155178497e-08</v>
+        <v>-3.969572080819717e-06</v>
       </c>
       <c r="D5">
-        <v>-1.002663119198388e-09</v>
+        <v>-9.721150617814089e-08</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-1.782022542307082e-07</v>
+        <v>-1.727742125229303e-05</v>
       </c>
       <c r="C6">
-        <v>-4.545935145650049e-06</v>
+        <v>-0.0004407465936751009</v>
       </c>
       <c r="D6">
-        <v>-1.22393711554647e-07</v>
+        <v>-1.186655984328211e-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.4180442065026e-07</v>
+        <v>-1.374847994739525e-05</v>
       </c>
       <c r="C7">
-        <v>-0.0002858212246792391</v>
+        <v>-0.02771144274447579</v>
       </c>
       <c r="D7">
-        <v>-1.258798619119261e-06</v>
+        <v>-0.0001220453300732061</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-3.08182416119962e-06</v>
+        <v>-0.0002988025216836832</v>
       </c>
       <c r="C8">
-        <v>-0.000140651136462111</v>
+        <v>-0.01363722039241111</v>
       </c>
       <c r="D8">
-        <v>-7.654643354726431e-07</v>
+        <v>-7.422279045954383e-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.005056870009071e-08</v>
+        <v>2.912342931704615e-06</v>
       </c>
       <c r="C9">
-        <v>9.273863526004789e-07</v>
+        <v>8.987740397969901e-05</v>
       </c>
       <c r="D9">
-        <v>1.715792706136199e-06</v>
+        <v>0.0001662855996187318</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-8.798180681424128e-05</v>
+        <v>-0.008530188227496183</v>
       </c>
       <c r="C10">
-        <v>-0.00170345696642471</v>
+        <v>-0.1651569672576443</v>
       </c>
       <c r="D10">
-        <v>-0.0001230824746016879</v>
+        <v>-0.01193333795401941</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-1.351547540551223e-08</v>
+        <v>-1.310376681384895e-06</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-2.364685087741236e-07</v>
+        <v>-2.292652199287204e-05</v>
       </c>
     </row>
   </sheetData>
